--- a/assets/disciplinas/LOB1038.xlsx
+++ b/assets/disciplinas/LOB1038.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-1,EM-1,EA-1,EB-2,EP-2,EQD-1,EQN-2</t>
+    <t>EF-1,EM-1,EA-2,EB-2,EP-2,EQD-1,EQN-2</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1038.xlsx
+++ b/assets/disciplinas/LOB1038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Familiarizar o aluno com a utilização de instrumentos de medidas mecânicas. Elaboração de tabelas e gráficos com escalas lineares e logarítmicas. Introdução de conceitos básicos da teoria de Erros e do Método dos Mínimos Quadrados. Realização de experimentos básicos de mecânica e elaboração de relatórios.</t>
+    <t>9149242 - Fernando Catalani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>9149242 - Fernando Catalani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Instrumentos de medidas; Construção de Tabelas e Gráficos; Método dos mínimos quadrados; Estática, Cinemática; Dinâmica; Conservação de Energia Mecânica; Choques Unidimensionais</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Instrumentos de medidas. Estimativa de erro nas medidas, propagação de erros e algarismos significativos.2) Construção de Tabelas e Gráficos. Linearização.3) Regressão linear. Introdução ao método dos mínimos quadrados. 4) Cinemática. Movimento Retilíneo Uniforme e Movimento Retilíneo uniformemente variado. Queda Livre.5) Estática. Equilíbrio de um ponto Material. 6) Atrito.7) Lei de Hooke. Módulo de Young. 8) Conservação de Energia. Conceito de Conservação da Energia Mecânica. Sistema Massa-mola.9) Choques Unidimensionais.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>O (NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Apostilas do Laboratório de Ensino de Física do IFSC/USP.CRUZ, C. H. B.; FRAGNITO, H. L.; COSTA, I. F.; MELLO, B. A. Guia do Curso deLaboratório: Física Experimental I, IFGW/UNICAMP (2005).NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 1, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol.1, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol.1, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física I, Vol. 1, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 1, Thomson Pioneira (2008).</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,28 +608,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -652,64 +646,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1038.xlsx
+++ b/assets/disciplinas/LOB1038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Familiarizar o aluno com a utilização de instrumentos de medidas mecânicas. Elaboração de tabelas e gráficos com escalas lineares e logarítmicas. Introdução de conceitos básicos da teoria de Erros e do Método dos Mínimos Quadrados. Realização de experimentos básicos de mecânica e elaboração de relatórios.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To familiarize the student with the use of measuring instruments. Drafting tables and graphics with linear and logarithmic scales . Basic Concepts of Error Theory and method of least squares. Basic mechanics experiments and preparation of reports.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>9149242 - Fernando Catalani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To familiarize the student with the use of measuring instruments. Drafting tables and graphics with linear and logarithmic scales . Basic Concepts of Error Theory and method of least squares. Basic mechanics experiments and preparation of reports.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Instrumentos de medidas; Construção de Tabelas e Gráficos; Método dos mínimos quadrados; Estática, Cinemática; Dinâmica; Conservação de Energia Mecânica; Choques Unidimensionais</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Instrumentos de medidas. Estimativa de erro nas medidas, propagação de erros e algarismos significativos.2) Construção de Tabelas e Gráficos. Linearização.3) Regressão linear. Introdução ao método dos mínimos quadrados. 4) Cinemática. Movimento Retilíneo Uniforme e Movimento Retilíneo uniformemente variado. Queda Livre.5) Estática. Equilíbrio de um ponto Material. 6) Atrito.7) Lei de Hooke. Módulo de Young. 8) Conservação de Energia. Conceito de Conservação da Energia Mecânica. Sistema Massa-mola.9) Choques Unidimensionais.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>O (NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>O (NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
+    <t>Apostilas do Laboratório de Ensino de Física do IFSC/USP.CRUZ, C. H. B.; FRAGNITO, H. L.; COSTA, I. F.; MELLO, B. A. Guia do Curso deLaboratório: Física Experimental I, IFGW/UNICAMP (2005).NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 1, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol.1, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol.1, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física I, Vol. 1, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 1, Thomson Pioneira (2008).</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -608,31 +617,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -646,53 +652,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
